--- a/Models/case1_df_models_metrics.xlsx
+++ b/Models/case1_df_models_metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>parameters</t>
   </si>
@@ -47,10 +47,16 @@
     <t>pred_RNN_ENDO_1_NEW_val</t>
   </si>
   <si>
+    <t>pred_RNN_EXO_1_NEW_val</t>
+  </si>
+  <si>
     <t>pred_RNN_ENDO_1_NEW_test</t>
   </si>
   <si>
     <t>pred_RNN_ENDO_1_test</t>
+  </si>
+  <si>
+    <t>model_rnn_unique_1</t>
   </si>
   <si>
     <t>pred_RNN_ENDO_2_test</t>
@@ -432,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,69 +498,81 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>30650.3210105896</v>
+        <v>31013.92483901978</v>
       </c>
       <c r="D2" t="n">
-        <v>35026.58425140381</v>
+        <v>35217.92647171021</v>
       </c>
       <c r="E2" t="n">
-        <v>33863.89338302612</v>
+        <v>33423.96739196777</v>
       </c>
       <c r="F2" t="n">
-        <v>33378.14702606201</v>
+        <v>32984.97052955627</v>
       </c>
       <c r="G2" t="n">
-        <v>33430.26951599121</v>
+        <v>33611.37430477142</v>
       </c>
       <c r="H2" t="n">
-        <v>30887.85809326172</v>
+        <v>30223.76470947266</v>
       </c>
       <c r="I2" t="n">
-        <v>32278.78506469727</v>
+        <v>32146.11291503906</v>
       </c>
       <c r="J2" t="n">
-        <v>33638.59764099121</v>
+        <v>32146.11291503906</v>
       </c>
       <c r="K2" t="n">
-        <v>33863.89338302612</v>
+        <v>33423.96739196777</v>
       </c>
       <c r="L2" t="n">
-        <v>32575.73499298096</v>
+        <v>23382.01187133789</v>
       </c>
       <c r="M2" t="n">
-        <v>32210.81774139404</v>
+        <v>32340.14583587646</v>
       </c>
       <c r="N2" t="n">
-        <v>31578.03627967834</v>
+        <v>30926.62005615234</v>
       </c>
       <c r="O2" t="n">
-        <v>31127.21600341797</v>
+        <v>30926.62005615234</v>
       </c>
       <c r="P2" t="n">
-        <v>30887.85809326172</v>
+        <v>31465.61107826233</v>
       </c>
       <c r="Q2" t="n">
-        <v>32278.78506469727</v>
+        <v>32369.65530395508</v>
       </c>
       <c r="R2" t="n">
-        <v>29909.57597351074</v>
+        <v>28728.81680297852</v>
+      </c>
+      <c r="S2" t="n">
+        <v>30823.14932441711</v>
+      </c>
+      <c r="T2" t="n">
+        <v>29425.79150390625</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>35555</v>
@@ -572,10 +590,10 @@
         <v>35555</v>
       </c>
       <c r="H3" t="n">
-        <v>31962</v>
+        <v>35555</v>
       </c>
       <c r="I3" t="n">
-        <v>31962</v>
+        <v>35555</v>
       </c>
       <c r="J3" t="n">
         <v>35555</v>
@@ -584,7 +602,7 @@
         <v>35555</v>
       </c>
       <c r="L3" t="n">
-        <v>31962</v>
+        <v>35555</v>
       </c>
       <c r="M3" t="n">
         <v>31962</v>
@@ -604,229 +622,259 @@
       <c r="R3" t="n">
         <v>31962</v>
       </c>
+      <c r="S3" t="n">
+        <v>31962</v>
+      </c>
+      <c r="T3" t="n">
+        <v>31962</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>-7112.8503074646</v>
+        <v>-6853.758045196533</v>
       </c>
       <c r="D4" t="n">
-        <v>-3595.354110717773</v>
+        <v>-3433.263202667236</v>
       </c>
       <c r="E4" t="n">
-        <v>-4170.648094177246</v>
+        <v>-5248.0078125</v>
       </c>
       <c r="F4" t="n">
-        <v>-4753.931617736816</v>
+        <v>-4821.583518981934</v>
       </c>
       <c r="G4" t="n">
-        <v>-4479.194107055664</v>
+        <v>-4328.862397193909</v>
       </c>
       <c r="H4" t="n">
-        <v>-4237.491302490234</v>
+        <v>-7585.754409790039</v>
       </c>
       <c r="I4" t="n">
-        <v>-4049.114807128906</v>
+        <v>-5875.795913696289</v>
       </c>
       <c r="J4" t="n">
-        <v>-5546.790161132812</v>
+        <v>-5875.795913696289</v>
       </c>
       <c r="K4" t="n">
-        <v>-4170.648094177246</v>
+        <v>-5248.0078125</v>
       </c>
       <c r="L4" t="n">
-        <v>-3218.668876647949</v>
+        <v>-14157.10899353027</v>
       </c>
       <c r="M4" t="n">
-        <v>-3621.84822845459</v>
+        <v>-3412.095115661621</v>
       </c>
       <c r="N4" t="n">
-        <v>-3564.261075973511</v>
+        <v>-4315.918830871582</v>
       </c>
       <c r="O4" t="n">
-        <v>-4084.332496643066</v>
+        <v>-4315.918830871582</v>
       </c>
       <c r="P4" t="n">
-        <v>-4237.491302490234</v>
+        <v>-3478.956884384155</v>
       </c>
       <c r="Q4" t="n">
-        <v>-4049.114807128906</v>
+        <v>-3897.856979370117</v>
       </c>
       <c r="R4" t="n">
-        <v>-5220.553512573242</v>
+        <v>-5942.356475830078</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-4183.734128952026</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-5953.868759155273</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>2208.171318054199</v>
+        <v>2312.682884216309</v>
       </c>
       <c r="D5" t="n">
-        <v>3066.938362121582</v>
+        <v>3096.189674377441</v>
       </c>
       <c r="E5" t="n">
-        <v>2479.541477203369</v>
+        <v>3116.975204467773</v>
       </c>
       <c r="F5" t="n">
-        <v>2577.078643798828</v>
+        <v>2251.554048538208</v>
       </c>
       <c r="G5" t="n">
-        <v>2354.463623046875</v>
+        <v>2385.236701965332</v>
       </c>
       <c r="H5" t="n">
-        <v>3163.349395751953</v>
+        <v>2254.519119262695</v>
       </c>
       <c r="I5" t="n">
-        <v>4365.899871826172</v>
+        <v>2466.908828735352</v>
       </c>
       <c r="J5" t="n">
-        <v>3630.387802124023</v>
+        <v>2466.908828735352</v>
       </c>
       <c r="K5" t="n">
-        <v>2479.541477203369</v>
+        <v>3116.975204467773</v>
       </c>
       <c r="L5" t="n">
-        <v>3832.403869628906</v>
+        <v>1984.120864868164</v>
       </c>
       <c r="M5" t="n">
-        <v>3870.665969848633</v>
+        <v>3790.240951538086</v>
       </c>
       <c r="N5" t="n">
-        <v>3180.297355651855</v>
+        <v>3280.538887023926</v>
       </c>
       <c r="O5" t="n">
-        <v>3249.548500061035</v>
+        <v>3280.538887023926</v>
       </c>
       <c r="P5" t="n">
-        <v>3163.349395751953</v>
+        <v>2982.567962646484</v>
       </c>
       <c r="Q5" t="n">
-        <v>4365.899871826172</v>
+        <v>4305.512283325195</v>
       </c>
       <c r="R5" t="n">
-        <v>3168.129486083984</v>
+        <v>2709.173278808594</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3044.883453369141</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3417.660263061523</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>89.21435546875</v>
+        <v>86.74371337890625</v>
       </c>
       <c r="D6" t="n">
-        <v>49.28619384765625</v>
+        <v>48.17791748046875</v>
       </c>
       <c r="E6" t="n">
-        <v>56.45779418945312</v>
+        <v>78.28146362304688</v>
       </c>
       <c r="F6" t="n">
-        <v>64.1580810546875</v>
+        <v>57.326904296875</v>
       </c>
       <c r="G6" t="n">
-        <v>51.2520751953125</v>
+        <v>41.87857055664062</v>
       </c>
       <c r="H6" t="n">
-        <v>75.03739929199219</v>
+        <v>99.81130981445312</v>
       </c>
       <c r="I6" t="n">
-        <v>80.85212707519531</v>
+        <v>76.1607666015625</v>
       </c>
       <c r="J6" t="n">
-        <v>94.58084106445312</v>
+        <v>76.1607666015625</v>
       </c>
       <c r="K6" t="n">
-        <v>56.45779418945312</v>
+        <v>78.28146362304688</v>
       </c>
       <c r="L6" t="n">
-        <v>58.44857788085938</v>
+        <v>189.7015075683594</v>
       </c>
       <c r="M6" t="n">
-        <v>61.37397766113281</v>
+        <v>61.99221801757812</v>
       </c>
       <c r="N6" t="n">
-        <v>49.91093063354492</v>
+        <v>74.01921081542969</v>
       </c>
       <c r="O6" t="n">
-        <v>52.02772521972656</v>
+        <v>74.01921081542969</v>
       </c>
       <c r="P6" t="n">
-        <v>75.03739929199219</v>
+        <v>46.70722198486328</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.85212707519531</v>
+        <v>71.89505004882812</v>
       </c>
       <c r="R6" t="n">
-        <v>85.46072387695312</v>
+        <v>85.59107971191406</v>
+      </c>
+      <c r="S6" t="n">
+        <v>63.59894561767578</v>
+      </c>
+      <c r="T6" t="n">
+        <v>100.4442901611328</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>641073.4249325899</v>
+        <v>648770.693320813</v>
       </c>
       <c r="D7" t="n">
-        <v>420779.5556059287</v>
+        <v>726271.6051407185</v>
       </c>
       <c r="E7" t="n">
-        <v>760649.4028773695</v>
+        <v>767154.1470620014</v>
       </c>
       <c r="F7" t="n">
-        <v>834966.807417945</v>
+        <v>768974.9938304229</v>
       </c>
       <c r="G7" t="n">
-        <v>644143.6486181373</v>
+        <v>610040.9192675158</v>
       </c>
       <c r="H7" t="n">
-        <v>84.36882098007138</v>
+        <v>783943.4401953422</v>
       </c>
       <c r="I7" t="n">
-        <v>103.8445005272834</v>
+        <v>831822.5241647426</v>
       </c>
       <c r="J7" t="n">
-        <v>784528.4148946571</v>
+        <v>831822.5241647426</v>
       </c>
       <c r="K7" t="n">
-        <v>760649.4028773695</v>
+        <v>767154.1470620014</v>
       </c>
       <c r="L7" t="n">
-        <v>85.03661261748287</v>
+        <v>613705.1704488309</v>
       </c>
       <c r="M7" t="n">
-        <v>83.23457098300922</v>
+        <v>84.54770173043045</v>
       </c>
       <c r="N7" t="n">
-        <v>78.80737684643123</v>
+        <v>87.49505795101616</v>
       </c>
       <c r="O7" t="n">
-        <v>80.4525061786001</v>
+        <v>87.49505795101616</v>
       </c>
       <c r="P7" t="n">
-        <v>84.36882098007138</v>
+        <v>74.93232120725092</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8445005272834</v>
+        <v>92.57770653202563</v>
       </c>
       <c r="R7" t="n">
-        <v>86.48147739804386</v>
+        <v>90.98316009369515</v>
+      </c>
+      <c r="S7" t="n">
+        <v>88.26479898567892</v>
+      </c>
+      <c r="T7" t="n">
+        <v>98.7866482855524</v>
       </c>
     </row>
   </sheetData>
